--- a/Supplementary table.xlsx
+++ b/Supplementary table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="136">
   <si>
     <t>completeness</t>
   </si>
@@ -426,18 +426,6 @@
   </si>
   <si>
     <t>Eukaria;Plantae;Chlorophyta</t>
-  </si>
-  <si>
-    <t>stoic</t>
-  </si>
-  <si>
-    <t>loser</t>
-  </si>
-  <si>
-    <t>winner</t>
-  </si>
-  <si>
-    <t>Change signifficance</t>
   </si>
   <si>
     <t>After/Before fold change</t>
@@ -761,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +762,7 @@
     <col min="11" max="11" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -791,25 +779,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -828,23 +813,20 @@
       <c r="F2">
         <v>9945709</v>
       </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>1.4101678718699999</v>
       </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -863,23 +845,20 @@
       <c r="F3">
         <v>2907746</v>
       </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>4.4213335589999998</v>
       </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -898,23 +877,20 @@
       <c r="F4">
         <v>3489855</v>
       </c>
-      <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>595.33637534000002</v>
       </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -933,23 +909,20 @@
       <c r="F5">
         <v>1787608</v>
       </c>
-      <c r="G5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>9.6452557435299999E-2</v>
       </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -968,23 +941,20 @@
       <c r="F6">
         <v>3548370</v>
       </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>0.429773399582</v>
       </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1003,23 +973,20 @@
       <c r="F7">
         <v>2506034</v>
       </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>22.502860401300001</v>
       </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1038,23 +1005,20 @@
       <c r="F8">
         <v>2396020</v>
       </c>
-      <c r="G8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>18.302453766599999</v>
       </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1073,23 +1037,20 @@
       <c r="F9">
         <v>3181126</v>
       </c>
-      <c r="G9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>2.2001650971900002</v>
       </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1108,23 +1069,20 @@
       <c r="F10">
         <v>3203868</v>
       </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>0.37106593092000001</v>
       </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1143,23 +1101,20 @@
       <c r="F11">
         <v>3252985</v>
       </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>1.92787913317</v>
       </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1178,23 +1133,20 @@
       <c r="F12">
         <v>3121721</v>
       </c>
-      <c r="G12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>0.29722337135499999</v>
       </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1213,23 +1165,20 @@
       <c r="F13">
         <v>2064438</v>
       </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>0.17205142108599999</v>
       </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1248,23 +1197,20 @@
       <c r="F14">
         <v>2641672</v>
       </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>4.6625713445399999</v>
       </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
         <v>112</v>
       </c>
-      <c r="K14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1283,23 +1229,20 @@
       <c r="F15">
         <v>2413993</v>
       </c>
-      <c r="G15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>3.7820669748000002</v>
       </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1318,23 +1261,20 @@
       <c r="F16">
         <v>2809869</v>
       </c>
-      <c r="G16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>0.917173481023</v>
       </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
         <v>103</v>
       </c>
-      <c r="K16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1353,23 +1293,20 @@
       <c r="F17">
         <v>3054377</v>
       </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>1.0578109834</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1388,23 +1325,20 @@
       <c r="F18">
         <v>2678007</v>
       </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>0.58163408726599997</v>
       </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
         <v>103</v>
       </c>
-      <c r="K18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1423,23 +1357,20 @@
       <c r="F19">
         <v>2459580</v>
       </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>0.70663253125900005</v>
       </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1458,23 +1389,20 @@
       <c r="F20">
         <v>3279077</v>
       </c>
-      <c r="G20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>0.95599606681600002</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
       <c r="I20" t="s">
         <v>9</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1493,23 +1421,20 @@
       <c r="F21">
         <v>3721583</v>
       </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>0.17827510887100001</v>
       </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1528,23 +1453,20 @@
       <c r="F22">
         <v>2655338</v>
       </c>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>0.93849831142700002</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
       </c>
       <c r="I22" t="s">
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1563,23 +1485,20 @@
       <c r="F23">
         <v>2603423</v>
       </c>
-      <c r="G23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>0.18138352428999999</v>
       </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1598,23 +1517,20 @@
       <c r="F24">
         <v>2956102</v>
       </c>
-      <c r="G24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>8.2040361971499998</v>
       </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
         <v>103</v>
       </c>
-      <c r="K24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1633,23 +1549,20 @@
       <c r="F25">
         <v>3089989</v>
       </c>
-      <c r="G25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>2.0940784289600001</v>
       </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
       <c r="I25" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
         <v>103</v>
       </c>
-      <c r="K25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1668,23 +1581,20 @@
       <c r="F26">
         <v>2721633</v>
       </c>
-      <c r="G26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>0.204788098157</v>
       </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1703,23 +1613,20 @@
       <c r="F27">
         <v>2466435</v>
       </c>
-      <c r="G27" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>12.809189917399999</v>
       </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
         <v>103</v>
       </c>
-      <c r="K27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1738,23 +1645,20 @@
       <c r="F28">
         <v>1906484</v>
       </c>
-      <c r="G28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>27.5250529333</v>
       </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1773,23 +1677,20 @@
       <c r="F29">
         <v>2744797</v>
       </c>
-      <c r="G29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>0.56731724296399999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
       </c>
       <c r="I29" t="s">
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1808,23 +1709,20 @@
       <c r="F30">
         <v>2703765</v>
       </c>
-      <c r="G30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>1.6983139973200001</v>
       </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
       <c r="I30" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1843,23 +1741,20 @@
       <c r="F31">
         <v>1037184</v>
       </c>
-      <c r="G31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>0.108350626666</v>
       </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1878,23 +1773,20 @@
       <c r="F32">
         <v>3353205</v>
       </c>
-      <c r="G32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>0.13579278440199999</v>
       </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
       <c r="I32" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J32" t="s">
         <v>103</v>
       </c>
-      <c r="K32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1913,23 +1805,20 @@
       <c r="F33">
         <v>2670516</v>
       </c>
-      <c r="G33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33">
+      <c r="G33">
         <v>9.4233639013099992</v>
       </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
       <c r="I33" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
         <v>103</v>
       </c>
-      <c r="K33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1948,23 +1837,20 @@
       <c r="F34">
         <v>2778251</v>
       </c>
-      <c r="G34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34">
+      <c r="G34">
         <v>0.66381948452299999</v>
       </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
       <c r="I34" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -1983,23 +1869,20 @@
       <c r="F35">
         <v>2435471</v>
       </c>
-      <c r="G35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35">
+      <c r="G35">
         <v>11.062201458200001</v>
       </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2018,23 +1901,20 @@
       <c r="F36">
         <v>2437932</v>
       </c>
-      <c r="G36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36">
+      <c r="G36">
         <v>0.94897605457599998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2053,23 +1933,20 @@
       <c r="F37">
         <v>1097787</v>
       </c>
-      <c r="G37" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37">
+      <c r="G37">
         <v>0.15690615322699999</v>
       </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2088,23 +1965,20 @@
       <c r="F38">
         <v>2115032</v>
       </c>
-      <c r="G38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38">
+      <c r="G38">
         <v>0.85589581425299999</v>
       </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2123,23 +1997,20 @@
       <c r="F39">
         <v>2514956</v>
       </c>
-      <c r="G39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39">
+      <c r="G39">
         <v>0.24911757512499999</v>
       </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
       <c r="I39" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
-      </c>
-      <c r="K39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -2158,23 +2029,20 @@
       <c r="F40">
         <v>2857481</v>
       </c>
-      <c r="G40" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40">
+      <c r="G40">
         <v>0.44963377502399998</v>
       </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
       <c r="I40" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2193,23 +2061,20 @@
       <c r="F41">
         <v>2951147</v>
       </c>
-      <c r="G41" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41">
+      <c r="G41">
         <v>2.0024628492200001</v>
       </c>
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
       <c r="I41" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
         <v>103</v>
       </c>
-      <c r="K41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2228,23 +2093,20 @@
       <c r="F42">
         <v>2415797</v>
       </c>
-      <c r="G42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42">
+      <c r="G42">
         <v>13.5394742311</v>
       </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2263,23 +2125,20 @@
       <c r="F43">
         <v>2488760</v>
       </c>
-      <c r="G43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43">
+      <c r="G43">
         <v>2.4307553027400002</v>
       </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
       <c r="I43" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J43" t="s">
         <v>103</v>
       </c>
-      <c r="K43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -2298,23 +2157,20 @@
       <c r="F44">
         <v>2830978</v>
       </c>
-      <c r="G44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44">
+      <c r="G44">
         <v>1.04586346117</v>
       </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2333,23 +2189,20 @@
       <c r="F45">
         <v>887108</v>
       </c>
-      <c r="G45" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45">
+      <c r="G45">
         <v>0.175100948422</v>
       </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2368,23 +2221,20 @@
       <c r="F46">
         <v>2722551</v>
       </c>
-      <c r="G46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46">
+      <c r="G46">
         <v>0.54075306066999995</v>
       </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
       <c r="I46" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
         <v>103</v>
       </c>
-      <c r="K46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -2403,23 +2253,20 @@
       <c r="F47">
         <v>2429326</v>
       </c>
-      <c r="G47" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47">
+      <c r="G47">
         <v>0.33092269493199999</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
       </c>
       <c r="I47" t="s">
         <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2438,23 +2285,20 @@
       <c r="F48">
         <v>3093298</v>
       </c>
-      <c r="G48" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48">
+      <c r="G48">
         <v>3.13323336337</v>
       </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
       <c r="I48" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -2473,23 +2317,20 @@
       <c r="F49">
         <v>2446296</v>
       </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49">
+      <c r="G49">
         <v>0.72865067535799999</v>
       </c>
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
       <c r="I49" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
-      </c>
-      <c r="K49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2508,23 +2349,20 @@
       <c r="F50">
         <v>3453679</v>
       </c>
-      <c r="G50" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50">
+      <c r="G50">
         <v>2.64590920875</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
       </c>
       <c r="I50" t="s">
         <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2543,23 +2381,20 @@
       <c r="F51">
         <v>2162581</v>
       </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51">
+      <c r="G51">
         <v>8.4782114963099993</v>
       </c>
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
       <c r="I51" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2578,23 +2413,20 @@
       <c r="F52">
         <v>2400063</v>
       </c>
-      <c r="G52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52">
+      <c r="G52">
         <v>1.49179649714</v>
       </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
       <c r="I52" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="J52" t="s">
         <v>108</v>
       </c>
-      <c r="K52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2613,23 +2445,20 @@
       <c r="F53">
         <v>2099664</v>
       </c>
-      <c r="G53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53">
+      <c r="G53">
         <v>0.85196636327499997</v>
       </c>
+      <c r="H53" t="s">
+        <v>5</v>
+      </c>
       <c r="I53" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J53" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -2648,23 +2477,20 @@
       <c r="F54">
         <v>2422757</v>
       </c>
-      <c r="G54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54">
+      <c r="G54">
         <v>23.307644699899999</v>
       </c>
+      <c r="H54" t="s">
+        <v>5</v>
+      </c>
       <c r="I54" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2683,23 +2509,20 @@
       <c r="F55">
         <v>2602580</v>
       </c>
-      <c r="G55" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55">
+      <c r="G55">
         <v>3.9312230735</v>
       </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
       <c r="I55" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
-      </c>
-      <c r="K55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2718,23 +2541,20 @@
       <c r="F56">
         <v>2612197</v>
       </c>
-      <c r="G56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56">
+      <c r="G56">
         <v>1.47342059872</v>
       </c>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -2753,23 +2573,20 @@
       <c r="F57">
         <v>2793438</v>
       </c>
-      <c r="G57" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57">
+      <c r="G57">
         <v>8.5043864516899994</v>
       </c>
+      <c r="H57" t="s">
+        <v>5</v>
+      </c>
       <c r="I57" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
-      </c>
-      <c r="K57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2788,23 +2605,20 @@
       <c r="F58">
         <v>2694110</v>
       </c>
-      <c r="G58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58">
+      <c r="G58">
         <v>1.5635214425899999</v>
       </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
       <c r="I58" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
-      </c>
-      <c r="K58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2823,23 +2637,20 @@
       <c r="F59">
         <v>785653</v>
       </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59">
+      <c r="G59">
         <v>1.04182866076</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
       </c>
       <c r="I59" t="s">
         <v>9</v>
       </c>
       <c r="J59" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2858,23 +2669,20 @@
       <c r="F60">
         <v>616685</v>
       </c>
-      <c r="G60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60">
+      <c r="G60">
         <v>4.4299352804899996</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
       </c>
       <c r="I60" t="s">
         <v>9</v>
       </c>
       <c r="J60" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -2893,23 +2701,20 @@
       <c r="F61">
         <v>2876592</v>
       </c>
-      <c r="G61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61">
+      <c r="G61">
         <v>1.0886963119599999</v>
       </c>
+      <c r="H61" t="s">
+        <v>5</v>
+      </c>
       <c r="I61" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J61" t="s">
         <v>103</v>
       </c>
-      <c r="K61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2928,23 +2733,20 @@
       <c r="F62">
         <v>2200091</v>
       </c>
-      <c r="G62" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62">
+      <c r="G62">
         <v>0.94885614727099998</v>
       </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
       <c r="I62" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
-      </c>
-      <c r="K62" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2963,23 +2765,20 @@
       <c r="F63">
         <v>2613039</v>
       </c>
-      <c r="G63" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63">
+      <c r="G63">
         <v>8.9017159863999995E-2</v>
       </c>
+      <c r="H63" t="s">
+        <v>5</v>
+      </c>
       <c r="I63" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J63" t="s">
         <v>103</v>
       </c>
-      <c r="K63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -2998,23 +2797,20 @@
       <c r="F64">
         <v>2236126</v>
       </c>
-      <c r="G64" t="s">
-        <v>135</v>
-      </c>
-      <c r="H64">
+      <c r="G64">
         <v>22.363607848699999</v>
       </c>
+      <c r="H64" t="s">
+        <v>5</v>
+      </c>
       <c r="I64" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
-      </c>
-      <c r="K64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -3033,23 +2829,20 @@
       <c r="F65">
         <v>2119876</v>
       </c>
-      <c r="G65" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65">
+      <c r="G65">
         <v>1.4116477301200001</v>
       </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
       <c r="I65" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J65" t="s">
         <v>103</v>
       </c>
-      <c r="K65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3068,23 +2861,20 @@
       <c r="F66">
         <v>4202192</v>
       </c>
-      <c r="G66" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66">
+      <c r="G66">
         <v>0.10902753425099999</v>
       </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J66" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3103,23 +2893,20 @@
       <c r="F67">
         <v>1469027</v>
       </c>
-      <c r="G67" t="s">
-        <v>135</v>
-      </c>
-      <c r="H67">
+      <c r="G67">
         <v>2.84170697306</v>
       </c>
+      <c r="H67" t="s">
+        <v>5</v>
+      </c>
       <c r="I67" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
-      </c>
-      <c r="K67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -3138,23 +2925,20 @@
       <c r="F68">
         <v>2172163</v>
       </c>
-      <c r="G68" t="s">
-        <v>134</v>
-      </c>
-      <c r="H68">
+      <c r="G68">
         <v>0.45491817023100001</v>
       </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
       <c r="I68" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
-      </c>
-      <c r="K68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -3173,23 +2957,20 @@
       <c r="F69">
         <v>1966988</v>
       </c>
-      <c r="G69" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69">
+      <c r="G69">
         <v>12.2381380991</v>
       </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
       <c r="I69" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="J69" t="s">
         <v>112</v>
       </c>
-      <c r="K69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -3208,23 +2989,20 @@
       <c r="F70">
         <v>3330855</v>
       </c>
-      <c r="G70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H70">
+      <c r="G70">
         <v>0.43545520851800001</v>
       </c>
+      <c r="H70" t="s">
+        <v>5</v>
+      </c>
       <c r="I70" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
-      </c>
-      <c r="K70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3243,23 +3021,20 @@
       <c r="F71">
         <v>2572786</v>
       </c>
-      <c r="G71" t="s">
-        <v>134</v>
-      </c>
-      <c r="H71">
+      <c r="G71">
         <v>0.27717046590099997</v>
       </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
       <c r="I71" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
-      </c>
-      <c r="K71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3278,23 +3053,20 @@
       <c r="F72">
         <v>1618410</v>
       </c>
-      <c r="G72" t="s">
-        <v>134</v>
-      </c>
-      <c r="H72">
+      <c r="G72">
         <v>0.26388768918</v>
       </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
       <c r="I72" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J72" t="s">
         <v>103</v>
       </c>
-      <c r="K72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -3313,23 +3085,20 @@
       <c r="F73">
         <v>2541424</v>
       </c>
-      <c r="G73" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73">
+      <c r="G73">
         <v>0.15969886688400001</v>
       </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
       <c r="I73" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>103</v>
-      </c>
-      <c r="K73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -3348,23 +3117,20 @@
       <c r="F74">
         <v>2189696</v>
       </c>
-      <c r="G74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74">
+      <c r="G74">
         <v>1.23721317817</v>
       </c>
+      <c r="H74" t="s">
+        <v>5</v>
+      </c>
       <c r="I74" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J74" t="s">
-        <v>103</v>
-      </c>
-      <c r="K74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -3383,23 +3149,20 @@
       <c r="F75">
         <v>2349948</v>
       </c>
-      <c r="G75" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75">
+      <c r="G75">
         <v>2.67007662371</v>
       </c>
+      <c r="H75" t="s">
+        <v>5</v>
+      </c>
       <c r="I75" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J75" t="s">
-        <v>103</v>
-      </c>
-      <c r="K75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -3418,23 +3181,20 @@
       <c r="F76">
         <v>2117300</v>
       </c>
-      <c r="G76" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76">
+      <c r="G76">
         <v>0.88631236760300003</v>
       </c>
+      <c r="H76" t="s">
+        <v>5</v>
+      </c>
       <c r="I76" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J76" t="s">
         <v>103</v>
       </c>
-      <c r="K76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -3453,23 +3213,20 @@
       <c r="F77">
         <v>2636077</v>
       </c>
-      <c r="G77" t="s">
-        <v>134</v>
-      </c>
-      <c r="H77">
+      <c r="G77">
         <v>5.5425214485900001E-3</v>
       </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
       <c r="I77" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J77" t="s">
-        <v>103</v>
-      </c>
-      <c r="K77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -3488,23 +3245,20 @@
       <c r="F78">
         <v>2346340</v>
       </c>
-      <c r="G78" t="s">
-        <v>134</v>
-      </c>
-      <c r="H78">
+      <c r="G78">
         <v>0.51766097284500001</v>
       </c>
+      <c r="H78" t="s">
+        <v>5</v>
+      </c>
       <c r="I78" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J78" t="s">
-        <v>103</v>
-      </c>
-      <c r="K78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -3523,23 +3277,20 @@
       <c r="F79">
         <v>2616278</v>
       </c>
-      <c r="G79" t="s">
-        <v>134</v>
-      </c>
-      <c r="H79">
+      <c r="G79">
         <v>0.52071066669099997</v>
       </c>
+      <c r="H79" t="s">
+        <v>5</v>
+      </c>
       <c r="I79" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J79" t="s">
-        <v>103</v>
-      </c>
-      <c r="K79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -3558,23 +3309,20 @@
       <c r="F80">
         <v>1918756</v>
       </c>
-      <c r="G80" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80">
+      <c r="G80">
         <v>2.44123282253</v>
       </c>
+      <c r="H80" t="s">
+        <v>5</v>
+      </c>
       <c r="I80" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="J80" t="s">
         <v>107</v>
       </c>
-      <c r="K80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3593,23 +3341,20 @@
       <c r="F81">
         <v>2069396</v>
       </c>
-      <c r="G81" t="s">
-        <v>134</v>
-      </c>
-      <c r="H81">
+      <c r="G81">
         <v>9.6169606250399997E-2</v>
       </c>
+      <c r="H81" t="s">
+        <v>5</v>
+      </c>
       <c r="I81" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J81" t="s">
-        <v>103</v>
-      </c>
-      <c r="K81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3628,23 +3373,20 @@
       <c r="F82">
         <v>1595022</v>
       </c>
-      <c r="G82" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82">
+      <c r="G82">
         <v>0.49732626714099998</v>
       </c>
+      <c r="H82" t="s">
+        <v>5</v>
+      </c>
       <c r="I82" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J82" t="s">
         <v>103</v>
       </c>
-      <c r="K82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -3663,23 +3405,20 @@
       <c r="F83">
         <v>2284265</v>
       </c>
-      <c r="G83" t="s">
-        <v>135</v>
-      </c>
-      <c r="H83">
+      <c r="G83">
         <v>2.7439343193600001</v>
       </c>
+      <c r="H83" t="s">
+        <v>5</v>
+      </c>
       <c r="I83" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
-      </c>
-      <c r="K83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -3698,23 +3437,20 @@
       <c r="F84">
         <v>2540070</v>
       </c>
-      <c r="G84" t="s">
-        <v>134</v>
-      </c>
-      <c r="H84">
+      <c r="G84">
         <v>0.69308638187100002</v>
       </c>
+      <c r="H84" t="s">
+        <v>5</v>
+      </c>
       <c r="I84" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J84" t="s">
         <v>103</v>
       </c>
-      <c r="K84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3733,23 +3469,20 @@
       <c r="F85">
         <v>2161520</v>
       </c>
-      <c r="G85" t="s">
-        <v>135</v>
-      </c>
-      <c r="H85">
+      <c r="G85">
         <v>1.9849744756100001</v>
       </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
       <c r="I85" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J85" t="s">
-        <v>103</v>
-      </c>
-      <c r="K85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3768,23 +3501,20 @@
       <c r="F86">
         <v>1954103</v>
       </c>
-      <c r="G86" t="s">
-        <v>134</v>
-      </c>
-      <c r="H86">
+      <c r="G86">
         <v>0.16151653510200001</v>
       </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
       <c r="I86" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J86" t="s">
-        <v>103</v>
-      </c>
-      <c r="K86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -3803,23 +3533,20 @@
       <c r="F87">
         <v>1892619</v>
       </c>
-      <c r="G87" t="s">
-        <v>135</v>
-      </c>
-      <c r="H87">
+      <c r="G87">
         <v>8.2451564577200003</v>
       </c>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
       <c r="I87" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="J87" t="s">
         <v>107</v>
       </c>
-      <c r="K87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -3838,23 +3565,20 @@
       <c r="F88">
         <v>2173558</v>
       </c>
-      <c r="G88" t="s">
-        <v>135</v>
-      </c>
-      <c r="H88">
+      <c r="G88">
         <v>3.2386193518900002</v>
       </c>
+      <c r="H88" t="s">
+        <v>5</v>
+      </c>
       <c r="I88" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J88" t="s">
-        <v>103</v>
-      </c>
-      <c r="K88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -3873,23 +3597,20 @@
       <c r="F89">
         <v>1841689</v>
       </c>
-      <c r="G89" t="s">
-        <v>133</v>
-      </c>
-      <c r="H89">
+      <c r="G89">
         <v>1.82360146632</v>
       </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
       <c r="I89" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J89" t="s">
-        <v>103</v>
-      </c>
-      <c r="K89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -3908,23 +3629,20 @@
       <c r="F90">
         <v>1945603</v>
       </c>
-      <c r="G90" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90">
+      <c r="G90">
         <v>1.3068086532300001</v>
       </c>
+      <c r="H90" t="s">
+        <v>5</v>
+      </c>
       <c r="I90" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J90" t="s">
         <v>103</v>
       </c>
-      <c r="K90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -3943,23 +3661,20 @@
       <c r="F91">
         <v>2329581</v>
       </c>
-      <c r="G91" t="s">
-        <v>133</v>
-      </c>
-      <c r="H91">
+      <c r="G91">
         <v>1.39840536843</v>
       </c>
+      <c r="H91" t="s">
+        <v>5</v>
+      </c>
       <c r="I91" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J91" t="s">
         <v>103</v>
       </c>
-      <c r="K91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -3978,23 +3693,20 @@
       <c r="F92">
         <v>1667980</v>
       </c>
-      <c r="G92" t="s">
-        <v>133</v>
-      </c>
-      <c r="H92">
+      <c r="G92">
         <v>90.221264396600006</v>
       </c>
+      <c r="H92" t="s">
+        <v>44</v>
+      </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="J92" t="s">
-        <v>110</v>
-      </c>
-      <c r="K92" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4013,19 +3725,16 @@
       <c r="F93">
         <v>2602320</v>
       </c>
-      <c r="G93" t="s">
-        <v>133</v>
-      </c>
-      <c r="H93">
+      <c r="G93">
         <v>0.89675532664199997</v>
       </c>
+      <c r="H93" t="s">
+        <v>5</v>
+      </c>
       <c r="I93" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J93" t="s">
-        <v>103</v>
-      </c>
-      <c r="K93" t="s">
         <v>107</v>
       </c>
     </row>
